--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/6 Análisis comparativo de registros egresos.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/6 Análisis comparativo de registros egresos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36196B81-43C1-42A6-8988-1F1C0A84C392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -48,12 +43,6 @@
     <t xml:space="preserve">                                                                                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">            Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Cuenta Contable</t>
   </si>
   <si>
@@ -114,9 +103,6 @@
     <t>Publicidad</t>
   </si>
   <si>
-    <t xml:space="preserve">             Del 01 de enero al 31 de diciembre del 204 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CONCLUSIÓN: </t>
   </si>
   <si>
@@ -148,13 +134,22 @@
   </si>
   <si>
     <t>R-5</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,17 +195,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9.6"/>
@@ -416,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -441,57 +425,55 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -588,7 +576,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="25 Conector recto"/>
+        <xdr:cNvPr id="3" name="25 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -636,7 +630,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="26 Conector recto"/>
+        <xdr:cNvPr id="4" name="26 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -684,7 +684,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="29 Conector recto"/>
+        <xdr:cNvPr id="5" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -732,7 +738,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="30 Conector recto"/>
+        <xdr:cNvPr id="6" name="30 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -780,7 +792,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="31 Triángulo isósceles"/>
+        <xdr:cNvPr id="7" name="31 Triángulo isósceles">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1109,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1124,11 +1142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,8 +1161,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="35" t="s">
-        <v>38</v>
+      <c r="J4" s="32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
@@ -1154,294 +1172,304 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="B6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="I8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="I9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="18" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13" t="s">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="E15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="G15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:8" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="34"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="31"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1454,6 +1482,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
